--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Adam23-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Adam23-Itga4.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.1790343333333333</v>
+        <v>0.09286699999999999</v>
       </c>
       <c r="H2">
-        <v>0.537103</v>
+        <v>0.278601</v>
       </c>
       <c r="I2">
-        <v>0.00485560647444994</v>
+        <v>0.003009076821730935</v>
       </c>
       <c r="J2">
-        <v>0.00522711558998419</v>
+        <v>0.003071957783644885</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3680823333333333</v>
+        <v>0.506715</v>
       </c>
       <c r="N2">
-        <v>1.104247</v>
+        <v>1.520145</v>
       </c>
       <c r="O2">
-        <v>0.002753916244137746</v>
+        <v>0.003122343715987576</v>
       </c>
       <c r="P2">
-        <v>0.002775263739301222</v>
+        <v>0.003132472094339857</v>
       </c>
       <c r="Q2">
-        <v>0.06589937516011111</v>
+        <v>0.047057101905</v>
       </c>
       <c r="R2">
-        <v>0.5930943764409999</v>
+        <v>0.423513917145</v>
       </c>
       <c r="S2">
-        <v>1.33719335451281E-05</v>
+        <v>9.395372105255453E-06</v>
       </c>
       <c r="T2">
-        <v>1.450662435801924E-05</v>
+        <v>9.622822032257719E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.1790343333333333</v>
+        <v>0.09286699999999999</v>
       </c>
       <c r="H3">
-        <v>0.537103</v>
+        <v>0.278601</v>
       </c>
       <c r="I3">
-        <v>0.00485560647444994</v>
+        <v>0.003009076821730935</v>
       </c>
       <c r="J3">
-        <v>0.00522711558998419</v>
+        <v>0.003071957783644885</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>67.415553</v>
+        <v>88.13219433333332</v>
       </c>
       <c r="N3">
-        <v>202.246659</v>
+        <v>264.396583</v>
       </c>
       <c r="O3">
-        <v>0.5043892893009332</v>
+        <v>0.5430646480820168</v>
       </c>
       <c r="P3">
-        <v>0.5082991569073941</v>
+        <v>0.5448262620252092</v>
       </c>
       <c r="Q3">
-        <v>12.069698587653</v>
+        <v>8.184572491153665</v>
       </c>
       <c r="R3">
-        <v>108.627287288877</v>
+        <v>73.66115242038299</v>
       </c>
       <c r="S3">
-        <v>0.002449115898772815</v>
+        <v>0.001634123245245064</v>
       </c>
       <c r="T3">
-        <v>0.00265693844744646</v>
+        <v>0.001673683276362489</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.1790343333333333</v>
+        <v>0.09286699999999999</v>
       </c>
       <c r="H4">
-        <v>0.537103</v>
+        <v>0.278601</v>
       </c>
       <c r="I4">
-        <v>0.00485560647444994</v>
+        <v>0.003009076821730935</v>
       </c>
       <c r="J4">
-        <v>0.00522711558998419</v>
+        <v>0.003071957783644885</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.084311</v>
+        <v>1.5741895</v>
       </c>
       <c r="N4">
-        <v>6.168622</v>
+        <v>3.148379</v>
       </c>
       <c r="O4">
-        <v>0.0230761799621083</v>
+        <v>0.009700049718478087</v>
       </c>
       <c r="P4">
-        <v>0.01550337284869761</v>
+        <v>0.006487676741301404</v>
       </c>
       <c r="Q4">
-        <v>0.5521975636776666</v>
+        <v>0.1461902562965</v>
       </c>
       <c r="R4">
-        <v>3.313185382066</v>
+        <v>0.8771415377789999</v>
       </c>
       <c r="S4">
-        <v>0.0001120488488295851</v>
+        <v>2.918819477751009E-05</v>
       </c>
       <c r="T4">
-        <v>8.103792191476487E-05</v>
+        <v>1.992986906321273E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.1790343333333333</v>
+        <v>0.09286699999999999</v>
       </c>
       <c r="H5">
-        <v>0.537103</v>
+        <v>0.278601</v>
       </c>
       <c r="I5">
-        <v>0.00485560647444994</v>
+        <v>0.003009076821730935</v>
       </c>
       <c r="J5">
-        <v>0.00522711558998419</v>
+        <v>0.003071957783644885</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>62.78983433333334</v>
+        <v>72.07364666666666</v>
       </c>
       <c r="N5">
-        <v>188.369503</v>
+        <v>216.22094</v>
       </c>
       <c r="O5">
-        <v>0.4697806144928209</v>
+        <v>0.4441129584835175</v>
       </c>
       <c r="P5">
-        <v>0.4734222065046071</v>
+        <v>0.4455535891391496</v>
       </c>
       <c r="Q5">
-        <v>11.24153612997878</v>
+        <v>6.693263344993333</v>
       </c>
       <c r="R5">
-        <v>101.173825169809</v>
+        <v>60.23937010493999</v>
       </c>
       <c r="S5">
-        <v>0.002281069793302413</v>
+        <v>0.001336370009603105</v>
       </c>
       <c r="T5">
-        <v>0.002474632596264946</v>
+        <v>0.001368721816186926</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,40 +794,40 @@
         <v>85.851541</v>
       </c>
       <c r="I6">
-        <v>0.7761291564580808</v>
+        <v>0.9272539658256183</v>
       </c>
       <c r="J6">
-        <v>0.8355118634326505</v>
+        <v>0.9466308793322996</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.3680823333333333</v>
+        <v>0.506715</v>
       </c>
       <c r="N6">
-        <v>1.104247</v>
+        <v>1.520145</v>
       </c>
       <c r="O6">
-        <v>0.002753916244137746</v>
+        <v>0.003122343715987576</v>
       </c>
       <c r="P6">
-        <v>0.002775263739301222</v>
+        <v>0.003132472094339857</v>
       </c>
       <c r="Q6">
-        <v>10.53347851051411</v>
+        <v>14.500754532605</v>
       </c>
       <c r="R6">
-        <v>94.80130659462699</v>
+        <v>130.506790793445</v>
       </c>
       <c r="S6">
-        <v>0.002137394691518835</v>
+        <v>0.002895205593320178</v>
       </c>
       <c r="T6">
-        <v>0.00231876577834063</v>
+        <v>0.002965294813148829</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>85.851541</v>
       </c>
       <c r="I7">
-        <v>0.7761291564580808</v>
+        <v>0.9272539658256183</v>
       </c>
       <c r="J7">
-        <v>0.8355118634326505</v>
+        <v>0.9466308793322996</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>67.415553</v>
+        <v>88.13219433333332</v>
       </c>
       <c r="N7">
-        <v>202.246659</v>
+        <v>264.396583</v>
       </c>
       <c r="O7">
-        <v>0.5043892893009332</v>
+        <v>0.5430646480820168</v>
       </c>
       <c r="P7">
-        <v>0.5082991569073941</v>
+        <v>0.5448262620252092</v>
       </c>
       <c r="Q7">
-        <v>1929.243037472391</v>
+        <v>2522.094898409377</v>
       </c>
       <c r="R7">
-        <v>17363.18733725152</v>
+        <v>22698.8540856844</v>
       </c>
       <c r="S7">
-        <v>0.3914712336316241</v>
+        <v>0.5035588486337438</v>
       </c>
       <c r="T7">
-        <v>0.4246899757689421</v>
+        <v>0.5157493635042537</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>85.851541</v>
       </c>
       <c r="I8">
-        <v>0.7761291564580808</v>
+        <v>0.9272539658256183</v>
       </c>
       <c r="J8">
-        <v>0.8355118634326505</v>
+        <v>0.9466308793322996</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.084311</v>
+        <v>1.5741895</v>
       </c>
       <c r="N8">
-        <v>6.168622</v>
+        <v>3.148379</v>
       </c>
       <c r="O8">
-        <v>0.0230761799621083</v>
+        <v>0.009700049718478087</v>
       </c>
       <c r="P8">
-        <v>0.01550337284869761</v>
+        <v>0.006487676741301404</v>
       </c>
       <c r="Q8">
-        <v>88.26428409108367</v>
+        <v>45.04886480033983</v>
       </c>
       <c r="R8">
-        <v>529.585704546502</v>
+        <v>270.293188802039</v>
       </c>
       <c r="S8">
-        <v>0.01791009608826599</v>
+        <v>0.008994409570164478</v>
       </c>
       <c r="T8">
-        <v>0.0129532519383065</v>
+        <v>0.006141435138441857</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>85.851541</v>
       </c>
       <c r="I9">
-        <v>0.7761291564580808</v>
+        <v>0.9272539658256183</v>
       </c>
       <c r="J9">
-        <v>0.8355118634326505</v>
+        <v>0.9466308793322996</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>62.78983433333334</v>
+        <v>72.07364666666666</v>
       </c>
       <c r="N9">
-        <v>188.369503</v>
+        <v>216.22094</v>
       </c>
       <c r="O9">
-        <v>0.4697806144928209</v>
+        <v>0.4441129584835175</v>
       </c>
       <c r="P9">
-        <v>0.4734222065046071</v>
+        <v>0.4455535891391496</v>
       </c>
       <c r="Q9">
-        <v>1796.868012217125</v>
+        <v>2062.544543940949</v>
       </c>
       <c r="R9">
-        <v>16171.81210995412</v>
+        <v>18562.90089546854</v>
       </c>
       <c r="S9">
-        <v>0.3646104320466719</v>
+        <v>0.4118055020283897</v>
       </c>
       <c r="T9">
-        <v>0.3955498699470613</v>
+        <v>0.4217747858764553</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.184753</v>
+        <v>0.243062</v>
       </c>
       <c r="H10">
-        <v>0.5542589999999999</v>
+        <v>0.729186</v>
       </c>
       <c r="I10">
-        <v>0.005010702954409395</v>
+        <v>0.007875695677081898</v>
       </c>
       <c r="J10">
-        <v>0.005394078714490605</v>
+        <v>0.00804027483183793</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.3680823333333333</v>
+        <v>0.506715</v>
       </c>
       <c r="N10">
-        <v>1.104247</v>
+        <v>1.520145</v>
       </c>
       <c r="O10">
-        <v>0.002753916244137746</v>
+        <v>0.003122343715987576</v>
       </c>
       <c r="P10">
-        <v>0.002775263739301222</v>
+        <v>0.003132472094339857</v>
       </c>
       <c r="Q10">
-        <v>0.06800431533033333</v>
+        <v>0.12316316133</v>
       </c>
       <c r="R10">
-        <v>0.612038837973</v>
+        <v>1.10846845197</v>
       </c>
       <c r="S10">
-        <v>1.379905626069703E-05</v>
+        <v>2.459062890636718E-05</v>
       </c>
       <c r="T10">
-        <v>1.496999106326233E-05</v>
+        <v>2.51859365415554E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,22 +1092,22 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.184753</v>
+        <v>0.243062</v>
       </c>
       <c r="H11">
-        <v>0.5542589999999999</v>
+        <v>0.729186</v>
       </c>
       <c r="I11">
-        <v>0.005010702954409395</v>
+        <v>0.007875695677081898</v>
       </c>
       <c r="J11">
-        <v>0.005394078714490605</v>
+        <v>0.00804027483183793</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>67.415553</v>
+        <v>88.13219433333332</v>
       </c>
       <c r="N11">
-        <v>202.246659</v>
+        <v>264.396583</v>
       </c>
       <c r="O11">
-        <v>0.5043892893009332</v>
+        <v>0.5430646480820168</v>
       </c>
       <c r="P11">
-        <v>0.5082991569073941</v>
+        <v>0.5448262620252092</v>
       </c>
       <c r="Q11">
-        <v>12.455225663409</v>
+        <v>21.42158741904866</v>
       </c>
       <c r="R11">
-        <v>112.097030970681</v>
+        <v>192.794286771438</v>
       </c>
       <c r="S11">
-        <v>0.002527344902072641</v>
+        <v>0.004277011901275542</v>
       </c>
       <c r="T11">
-        <v>0.002741805662867695</v>
+        <v>0.004380552882285628</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>23</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.184753</v>
+        <v>0.243062</v>
       </c>
       <c r="H12">
-        <v>0.5542589999999999</v>
+        <v>0.729186</v>
       </c>
       <c r="I12">
-        <v>0.005010702954409395</v>
+        <v>0.007875695677081898</v>
       </c>
       <c r="J12">
-        <v>0.005394078714490605</v>
+        <v>0.00804027483183793</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.084311</v>
+        <v>1.5741895</v>
       </c>
       <c r="N12">
-        <v>6.168622</v>
+        <v>3.148379</v>
       </c>
       <c r="O12">
-        <v>0.0230761799621083</v>
+        <v>0.009700049718478087</v>
       </c>
       <c r="P12">
-        <v>0.01550337284869761</v>
+        <v>0.006487676741301404</v>
       </c>
       <c r="Q12">
-        <v>0.5698357101829999</v>
+        <v>0.382625648249</v>
       </c>
       <c r="R12">
-        <v>3.419014261098</v>
+        <v>2.295753889494</v>
       </c>
       <c r="S12">
-        <v>0.000115627883112619</v>
+        <v>7.639463963529735E-05</v>
       </c>
       <c r="T12">
-        <v>8.362641348597134E-05</v>
+        <v>5.2162704020186E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.184753</v>
+        <v>0.243062</v>
       </c>
       <c r="H13">
-        <v>0.5542589999999999</v>
+        <v>0.729186</v>
       </c>
       <c r="I13">
-        <v>0.005010702954409395</v>
+        <v>0.007875695677081898</v>
       </c>
       <c r="J13">
-        <v>0.005394078714490605</v>
+        <v>0.00804027483183793</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>62.78983433333334</v>
+        <v>72.07364666666666</v>
       </c>
       <c r="N13">
-        <v>188.369503</v>
+        <v>216.22094</v>
       </c>
       <c r="O13">
-        <v>0.4697806144928209</v>
+        <v>0.4441129584835175</v>
       </c>
       <c r="P13">
-        <v>0.4734222065046071</v>
+        <v>0.4455535891391496</v>
       </c>
       <c r="Q13">
-        <v>11.60061026258633</v>
+        <v>17.51836470609333</v>
       </c>
       <c r="R13">
-        <v>104.405492363277</v>
+        <v>157.66528235484</v>
       </c>
       <c r="S13">
-        <v>0.002353931112963439</v>
+        <v>0.003497698507264691</v>
       </c>
       <c r="T13">
-        <v>0.002553676647073677</v>
+        <v>0.003582373308990562</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.8617905</v>
+        <v>1.8951925</v>
       </c>
       <c r="H14">
-        <v>15.723581</v>
+        <v>3.790385</v>
       </c>
       <c r="I14">
-        <v>0.2132203368026377</v>
+        <v>0.06140803325689756</v>
       </c>
       <c r="J14">
-        <v>0.1530227449399449</v>
+        <v>0.04179418847656979</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.3680823333333333</v>
+        <v>0.506715</v>
       </c>
       <c r="N14">
-        <v>1.104247</v>
+        <v>1.520145</v>
       </c>
       <c r="O14">
-        <v>0.002753916244137746</v>
+        <v>0.003122343715987576</v>
       </c>
       <c r="P14">
-        <v>0.002775263739301222</v>
+        <v>0.003132472094339857</v>
       </c>
       <c r="Q14">
-        <v>2.893786191417833</v>
+        <v>0.9603224676375001</v>
       </c>
       <c r="R14">
-        <v>17.362717148507</v>
+        <v>5.761934805825001</v>
       </c>
       <c r="S14">
-        <v>0.0005871909491013053</v>
+        <v>0.0001917369867508302</v>
       </c>
       <c r="T14">
-        <v>0.0004246784753201686</v>
+        <v>0.0001309191291084353</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.8617905</v>
+        <v>1.8951925</v>
       </c>
       <c r="H15">
-        <v>15.723581</v>
+        <v>3.790385</v>
       </c>
       <c r="I15">
-        <v>0.2132203368026377</v>
+        <v>0.06140803325689756</v>
       </c>
       <c r="J15">
-        <v>0.1530227449399449</v>
+        <v>0.04179418847656979</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>67.415553</v>
+        <v>88.13219433333332</v>
       </c>
       <c r="N15">
-        <v>202.246659</v>
+        <v>264.396583</v>
       </c>
       <c r="O15">
-        <v>0.5043892893009332</v>
+        <v>0.5430646480820168</v>
       </c>
       <c r="P15">
-        <v>0.5082991569073941</v>
+        <v>0.5448262620252092</v>
       </c>
       <c r="Q15">
-        <v>530.0069541276465</v>
+        <v>167.0274737090758</v>
       </c>
       <c r="R15">
-        <v>3180.041724765879</v>
+        <v>1002.164842254455</v>
       </c>
       <c r="S15">
-        <v>0.107546054144388</v>
+        <v>0.03334853197006586</v>
       </c>
       <c r="T15">
-        <v>0.07778133224062918</v>
+        <v>0.02277057148206659</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.8617905</v>
+        <v>1.8951925</v>
       </c>
       <c r="H16">
-        <v>15.723581</v>
+        <v>3.790385</v>
       </c>
       <c r="I16">
-        <v>0.2132203368026377</v>
+        <v>0.06140803325689756</v>
       </c>
       <c r="J16">
-        <v>0.1530227449399449</v>
+        <v>0.04179418847656979</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.084311</v>
+        <v>1.5741895</v>
       </c>
       <c r="N16">
-        <v>6.168622</v>
+        <v>3.148379</v>
       </c>
       <c r="O16">
-        <v>0.0230761799621083</v>
+        <v>0.009700049718478087</v>
       </c>
       <c r="P16">
-        <v>0.01550337284869761</v>
+        <v>0.006487676741301404</v>
       </c>
       <c r="Q16">
-        <v>24.2482069188455</v>
+        <v>2.98339213397875</v>
       </c>
       <c r="R16">
-        <v>96.992827675382</v>
+        <v>11.933568535915</v>
       </c>
       <c r="S16">
-        <v>0.004920310863639012</v>
+        <v>0.0005956609757058622</v>
       </c>
       <c r="T16">
-        <v>0.00237236866913512</v>
+        <v>0.000271147184501009</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.8617905</v>
+        <v>1.8951925</v>
       </c>
       <c r="H17">
-        <v>15.723581</v>
+        <v>3.790385</v>
       </c>
       <c r="I17">
-        <v>0.2132203368026377</v>
+        <v>0.06140803325689756</v>
       </c>
       <c r="J17">
-        <v>0.1530227449399449</v>
+        <v>0.04179418847656979</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>62.78983433333334</v>
+        <v>72.07364666666666</v>
       </c>
       <c r="N17">
-        <v>188.369503</v>
+        <v>216.22094</v>
       </c>
       <c r="O17">
-        <v>0.4697806144928209</v>
+        <v>0.4441129584835175</v>
       </c>
       <c r="P17">
-        <v>0.4734222065046071</v>
+        <v>0.4455535891391496</v>
       </c>
       <c r="Q17">
-        <v>493.6405230583738</v>
+        <v>136.5934346103166</v>
       </c>
       <c r="R17">
-        <v>2961.843138350243</v>
+        <v>819.5606076619</v>
       </c>
       <c r="S17">
-        <v>0.1001667808455094</v>
+        <v>0.027272103324375</v>
       </c>
       <c r="T17">
-        <v>0.07244436555486039</v>
+        <v>0.01862155068089376</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>20</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.02891466666666667</v>
+        <v>0.01398766666666667</v>
       </c>
       <c r="H18">
-        <v>0.086744</v>
+        <v>0.041963</v>
       </c>
       <c r="I18">
-        <v>0.0007841973104221829</v>
+        <v>0.000453228418671488</v>
       </c>
       <c r="J18">
-        <v>0.0008441973229298452</v>
+        <v>0.0004626995756479349</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.3680823333333333</v>
+        <v>0.506715</v>
       </c>
       <c r="N18">
-        <v>1.104247</v>
+        <v>1.520145</v>
       </c>
       <c r="O18">
-        <v>0.002753916244137746</v>
+        <v>0.003122343715987576</v>
       </c>
       <c r="P18">
-        <v>0.002775263739301222</v>
+        <v>0.003132472094339857</v>
       </c>
       <c r="Q18">
-        <v>0.01064297797422222</v>
+        <v>0.007087760515</v>
       </c>
       <c r="R18">
-        <v>0.095786801768</v>
+        <v>0.06378984463500001</v>
       </c>
       <c r="S18">
-        <v>2.15961371178078E-06</v>
+        <v>1.415134904945907E-06</v>
       </c>
       <c r="T18">
-        <v>2.342870219142363E-06</v>
+        <v>1.44939350878005E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,22 +1588,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.02891466666666667</v>
+        <v>0.01398766666666667</v>
       </c>
       <c r="H19">
-        <v>0.086744</v>
+        <v>0.041963</v>
       </c>
       <c r="I19">
-        <v>0.0007841973104221829</v>
+        <v>0.000453228418671488</v>
       </c>
       <c r="J19">
-        <v>0.0008441973229298452</v>
+        <v>0.0004626995756479349</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>67.415553</v>
+        <v>88.13219433333332</v>
       </c>
       <c r="N19">
-        <v>202.246659</v>
+        <v>264.396583</v>
       </c>
       <c r="O19">
-        <v>0.5043892893009332</v>
+        <v>0.5430646480820168</v>
       </c>
       <c r="P19">
-        <v>0.5082991569073941</v>
+        <v>0.5448262620252092</v>
       </c>
       <c r="Q19">
-        <v>1.949298243144</v>
+        <v>1.232763756936555</v>
       </c>
       <c r="R19">
-        <v>17.543684188296</v>
+        <v>11.094873812429</v>
       </c>
       <c r="S19">
-        <v>0.0003955407240755481</v>
+        <v>0.0002461323316866006</v>
       </c>
       <c r="T19">
-        <v>0.0004291047875087195</v>
+        <v>0.0002520908802409149</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,22 +1650,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.02891466666666667</v>
+        <v>0.01398766666666667</v>
       </c>
       <c r="H20">
-        <v>0.086744</v>
+        <v>0.041963</v>
       </c>
       <c r="I20">
-        <v>0.0007841973104221829</v>
+        <v>0.000453228418671488</v>
       </c>
       <c r="J20">
-        <v>0.0008441973229298452</v>
+        <v>0.0004626995756479349</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.084311</v>
+        <v>1.5741895</v>
       </c>
       <c r="N20">
-        <v>6.168622</v>
+        <v>3.148379</v>
       </c>
       <c r="O20">
-        <v>0.0230761799621083</v>
+        <v>0.009700049718478087</v>
       </c>
       <c r="P20">
-        <v>0.01550337284869761</v>
+        <v>0.006487676741301404</v>
       </c>
       <c r="Q20">
-        <v>0.08918182446133334</v>
+        <v>0.02201923799616667</v>
       </c>
       <c r="R20">
-        <v>0.5350909467680001</v>
+        <v>0.132115427977</v>
       </c>
       <c r="S20">
-        <v>1.80962782611036E-05</v>
+        <v>4.396338194940636E-06</v>
       </c>
       <c r="T20">
-        <v>1.308790585525377E-05</v>
+        <v>3.001845275141137E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,22 +1712,22 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.02891466666666667</v>
+        <v>0.01398766666666667</v>
       </c>
       <c r="H21">
-        <v>0.086744</v>
+        <v>0.041963</v>
       </c>
       <c r="I21">
-        <v>0.0007841973104221829</v>
+        <v>0.000453228418671488</v>
       </c>
       <c r="J21">
-        <v>0.0008441973229298452</v>
+        <v>0.0004626995756479349</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>62.78983433333334</v>
+        <v>72.07364666666666</v>
       </c>
       <c r="N21">
-        <v>188.369503</v>
+        <v>216.22094</v>
       </c>
       <c r="O21">
-        <v>0.4697806144928209</v>
+        <v>0.4441129584835175</v>
       </c>
       <c r="P21">
-        <v>0.4734222065046071</v>
+        <v>0.4455535891391496</v>
       </c>
       <c r="Q21">
-        <v>1.815547129803556</v>
+        <v>1.008142145024444</v>
       </c>
       <c r="R21">
-        <v>16.339924168232</v>
+        <v>9.07327930522</v>
       </c>
       <c r="S21">
-        <v>0.0003684006943737505</v>
+        <v>0.0002012846138850008</v>
       </c>
       <c r="T21">
-        <v>0.0003996617593467296</v>
+        <v>0.0002061574566230988</v>
       </c>
     </row>
   </sheetData>
